--- a/Respaldo Presentación 12_01_2026.xlsx
+++ b/Respaldo Presentación 12_01_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igroj\OneDrive\Documentos\DEV\Split-Factores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6BCCC2-ED19-4043-9CC8-2BEBEB925964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89380A6-E483-4FDB-87C4-D309A1CA841F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Respaldo Presentación 12_01_2026.xlsx
+++ b/Respaldo Presentación 12_01_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igroj\OneDrive\Documentos\DEV\Split-Factores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89380A6-E483-4FDB-87C4-D309A1CA841F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076E827E-3577-4EDB-856E-29EF02FF9E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
